--- a/data/progproj_population.xlsx
+++ b/data/progproj_population.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanne\Desktop\3.6 programmeer project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanne\Documents\GitHub\Homework\Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5D1A174-0480-4F64-B209-7755384D9412}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CCAF93-D785-41A8-951B-B65037AC7E8F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Puerto Rico</t>
   </si>
@@ -757,6 +757,9 @@
   </si>
   <si>
     <t>Release Date: December 2016</t>
+  </si>
+  <si>
+    <t>StateName</t>
   </si>
 </sst>
 </file>
@@ -1397,8 +1400,8 @@
   <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1409,7 +1412,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4"/>
+      <c r="A1" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="B1" s="5">
         <v>2010</v>
       </c>

--- a/data/progproj_population.xlsx
+++ b/data/progproj_population.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanne\Documents\GitHub\Homework\Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CCAF93-D785-41A8-951B-B65037AC7E8F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172065BF-2E71-4495-96D7-20E15A33EA86}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,757 +16,175 @@
     <sheet name="NST01" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'NST01'!$A$1:$H$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'NST01'!$A$1:$H$51</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'NST01'!$A:$A,'NST01'!$1:$2</definedName>
-    <definedName name="NST01">'NST01'!$A$1:$H$54</definedName>
+    <definedName name="NST01">'NST01'!$A$1:$H$51</definedName>
   </definedNames>
   <calcPr calcId="65536"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Alabama</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Alaska</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arizona</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Arkansas</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>California</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Colorado</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Connecticut</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Delaware</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>District of Columbia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Florida</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Georgia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Hawaii</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Idaho</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Illinois</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Indiana</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Iowa</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kansas</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kentucky</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Louisiana</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Maine</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Maryland</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Massachusetts</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Michigan</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Minnesota</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Mississippi</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Missouri</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Montana</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nebraska</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nevada</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>New Hampshire</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>New Jersey</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>New Mexico</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>New York</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>North Carolina</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>North Dakota</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ohio</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Oklahoma</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Oregon</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pennsylvania</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Rhode Island</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>South Carolina</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>South Dakota</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tennessee</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Texas</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Utah</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Vermont</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Virginia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Washington</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>West Virginia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Wisconsin</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS sans serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>Wyoming</t>
-    </r>
-  </si>
-  <si>
-    <t>Note: The estimates are based on the 2010 Census and reflect changes to the April 1, 2010 population due to the Count Question Resolution program and geographic program revisions. See Geographic Terms and Definitions at http://www.census.gov/programs-surveys/popest/guidance-geographies/terms-and-definitions.html for a list of the states that are included in each region.  All geographic boundaries for the 2016 population estimates series except statistical area delineations are as of January 1, 2016.  For population estimates methodology statements, see http://www.census.gov/programs-surveys/popest/technical-documentation/methodology.html.</t>
-  </si>
-  <si>
-    <t>Suggested Citation:</t>
-  </si>
-  <si>
-    <t>Table 1. Annual Estimates of the Resident Population for the United States, Regions, States, and Puerto Rico: April 1, 2010 to July 1, 2016 (NST-EST2016-01)</t>
-  </si>
-  <si>
-    <t>Source: U.S. Census Bureau, Population Division</t>
-  </si>
-  <si>
-    <t>Release Date: December 2016</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>StateName</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -784,12 +202,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="9"/>
-      <name val="MS sans serif"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="MS sans serif"/>
       <family val="2"/>
@@ -801,20 +213,8 @@
       <name val="MS sans serif"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -827,92 +227,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -925,39 +246,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -987,22 +275,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1014,49 +291,20 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1397,11 +645,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1413,7 +661,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="B1" s="5">
         <v>2010</v>
@@ -1650,25 +898,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="6">
-        <v>605183</v>
+        <v>18849098</v>
       </c>
       <c r="C10" s="6">
-        <v>620477</v>
+        <v>19096952</v>
       </c>
       <c r="D10" s="6">
-        <v>635327</v>
+        <v>19344156</v>
       </c>
       <c r="E10" s="6">
-        <v>649165</v>
+        <v>19582022</v>
       </c>
       <c r="F10" s="6">
-        <v>659005</v>
+        <v>19888741</v>
       </c>
       <c r="G10" s="6">
-        <v>670377</v>
+        <v>20244914</v>
       </c>
       <c r="H10" s="6">
-        <v>681170</v>
+        <v>20612439</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -1676,25 +924,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="6">
-        <v>18849098</v>
+        <v>9713521</v>
       </c>
       <c r="C11" s="6">
-        <v>19096952</v>
+        <v>9811610</v>
       </c>
       <c r="D11" s="6">
-        <v>19344156</v>
+        <v>9914668</v>
       </c>
       <c r="E11" s="6">
-        <v>19582022</v>
+        <v>9984938</v>
       </c>
       <c r="F11" s="6">
-        <v>19888741</v>
+        <v>10087231</v>
       </c>
       <c r="G11" s="6">
-        <v>20244914</v>
+        <v>10199398</v>
       </c>
       <c r="H11" s="6">
-        <v>20612439</v>
+        <v>10310371</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -1702,25 +950,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="6">
-        <v>9713521</v>
+        <v>1363945</v>
       </c>
       <c r="C12" s="6">
-        <v>9811610</v>
+        <v>1377864</v>
       </c>
       <c r="D12" s="6">
-        <v>9914668</v>
+        <v>1391820</v>
       </c>
       <c r="E12" s="6">
-        <v>9984938</v>
+        <v>1406481</v>
       </c>
       <c r="F12" s="6">
-        <v>10087231</v>
+        <v>1416349</v>
       </c>
       <c r="G12" s="6">
-        <v>10199398</v>
+        <v>1425157</v>
       </c>
       <c r="H12" s="6">
-        <v>10310371</v>
+        <v>1428557</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -1728,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="6">
-        <v>1363945</v>
+        <v>1571010</v>
       </c>
       <c r="C13" s="6">
-        <v>1377864</v>
+        <v>1584143</v>
       </c>
       <c r="D13" s="6">
-        <v>1391820</v>
+        <v>1595911</v>
       </c>
       <c r="E13" s="6">
-        <v>1406481</v>
+        <v>1612011</v>
       </c>
       <c r="F13" s="6">
-        <v>1416349</v>
+        <v>1633532</v>
       </c>
       <c r="G13" s="6">
-        <v>1425157</v>
+        <v>1652828</v>
       </c>
       <c r="H13" s="6">
-        <v>1428557</v>
+        <v>1683140</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -1754,25 +1002,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="6">
-        <v>1571010</v>
+        <v>12841578</v>
       </c>
       <c r="C14" s="6">
-        <v>1584143</v>
+        <v>12860012</v>
       </c>
       <c r="D14" s="6">
-        <v>1595911</v>
+        <v>12870798</v>
       </c>
       <c r="E14" s="6">
-        <v>1612011</v>
+        <v>12879505</v>
       </c>
       <c r="F14" s="6">
-        <v>1633532</v>
+        <v>12867544</v>
       </c>
       <c r="G14" s="6">
-        <v>1652828</v>
+        <v>12839047</v>
       </c>
       <c r="H14" s="6">
-        <v>1683140</v>
+        <v>12801539</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -1780,25 +1028,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="6">
-        <v>12841578</v>
+        <v>6490528</v>
       </c>
       <c r="C15" s="6">
-        <v>12860012</v>
+        <v>6516480</v>
       </c>
       <c r="D15" s="6">
-        <v>12870798</v>
+        <v>6537743</v>
       </c>
       <c r="E15" s="6">
-        <v>12879505</v>
+        <v>6569102</v>
       </c>
       <c r="F15" s="6">
-        <v>12867544</v>
+        <v>6595233</v>
       </c>
       <c r="G15" s="6">
-        <v>12839047</v>
+        <v>6612768</v>
       </c>
       <c r="H15" s="6">
-        <v>12801539</v>
+        <v>6633053</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -1806,25 +1054,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="6">
-        <v>6490528</v>
+        <v>3050738</v>
       </c>
       <c r="C16" s="6">
-        <v>6516480</v>
+        <v>3065223</v>
       </c>
       <c r="D16" s="6">
-        <v>6537743</v>
+        <v>3076310</v>
       </c>
       <c r="E16" s="6">
-        <v>6569102</v>
+        <v>3091930</v>
       </c>
       <c r="F16" s="6">
-        <v>6595233</v>
+        <v>3108030</v>
       </c>
       <c r="G16" s="6">
-        <v>6612768</v>
+        <v>3121997</v>
       </c>
       <c r="H16" s="6">
-        <v>6633053</v>
+        <v>3134693</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -1832,25 +1080,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="6">
-        <v>3050738</v>
+        <v>2858850</v>
       </c>
       <c r="C17" s="6">
-        <v>3065223</v>
+        <v>2869503</v>
       </c>
       <c r="D17" s="6">
-        <v>3076310</v>
+        <v>2885262</v>
       </c>
       <c r="E17" s="6">
-        <v>3091930</v>
+        <v>2892821</v>
       </c>
       <c r="F17" s="6">
-        <v>3108030</v>
+        <v>2899360</v>
       </c>
       <c r="G17" s="6">
-        <v>3121997</v>
+        <v>2906721</v>
       </c>
       <c r="H17" s="6">
-        <v>3134693</v>
+        <v>2907289</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -1858,25 +1106,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="6">
-        <v>2858850</v>
+        <v>4348662</v>
       </c>
       <c r="C18" s="6">
-        <v>2869503</v>
+        <v>4369354</v>
       </c>
       <c r="D18" s="6">
-        <v>2885262</v>
+        <v>4384799</v>
       </c>
       <c r="E18" s="6">
-        <v>2892821</v>
+        <v>4400477</v>
       </c>
       <c r="F18" s="6">
-        <v>2899360</v>
+        <v>4413057</v>
       </c>
       <c r="G18" s="6">
-        <v>2906721</v>
+        <v>4424611</v>
       </c>
       <c r="H18" s="6">
-        <v>2907289</v>
+        <v>4436974</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -1884,25 +1132,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="6">
-        <v>4348662</v>
+        <v>4544996</v>
       </c>
       <c r="C19" s="6">
-        <v>4369354</v>
+        <v>4575404</v>
       </c>
       <c r="D19" s="6">
-        <v>4384799</v>
+        <v>4603429</v>
       </c>
       <c r="E19" s="6">
-        <v>4400477</v>
+        <v>4626402</v>
       </c>
       <c r="F19" s="6">
-        <v>4413057</v>
+        <v>4647880</v>
       </c>
       <c r="G19" s="6">
-        <v>4424611</v>
+        <v>4668960</v>
       </c>
       <c r="H19" s="6">
-        <v>4436974</v>
+        <v>4681666</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -1910,25 +1158,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="6">
-        <v>4544996</v>
+        <v>1327730</v>
       </c>
       <c r="C20" s="6">
-        <v>4575404</v>
+        <v>1328231</v>
       </c>
       <c r="D20" s="6">
-        <v>4603429</v>
+        <v>1328895</v>
       </c>
       <c r="E20" s="6">
-        <v>4626402</v>
+        <v>1329076</v>
       </c>
       <c r="F20" s="6">
-        <v>4647880</v>
+        <v>1330719</v>
       </c>
       <c r="G20" s="6">
-        <v>4668960</v>
+        <v>1329453</v>
       </c>
       <c r="H20" s="6">
-        <v>4681666</v>
+        <v>1331479</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -1936,25 +1184,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="6">
-        <v>1327730</v>
+        <v>5788584</v>
       </c>
       <c r="C21" s="6">
-        <v>1328231</v>
+        <v>5843603</v>
       </c>
       <c r="D21" s="6">
-        <v>1328895</v>
+        <v>5889651</v>
       </c>
       <c r="E21" s="6">
-        <v>1329076</v>
+        <v>5931129</v>
       </c>
       <c r="F21" s="6">
-        <v>1330719</v>
+        <v>5967295</v>
       </c>
       <c r="G21" s="6">
-        <v>1329453</v>
+        <v>5994983</v>
       </c>
       <c r="H21" s="6">
-        <v>1331479</v>
+        <v>6016447</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -1962,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="6">
-        <v>5788584</v>
+        <v>6565524</v>
       </c>
       <c r="C22" s="6">
-        <v>5843603</v>
+        <v>6611923</v>
       </c>
       <c r="D22" s="6">
-        <v>5889651</v>
+        <v>6658008</v>
       </c>
       <c r="E22" s="6">
-        <v>5931129</v>
+        <v>6706786</v>
       </c>
       <c r="F22" s="6">
-        <v>5967295</v>
+        <v>6749911</v>
       </c>
       <c r="G22" s="6">
-        <v>5994983</v>
+        <v>6784240</v>
       </c>
       <c r="H22" s="6">
-        <v>6016447</v>
+        <v>6811779</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -1988,25 +1236,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="6">
-        <v>6565524</v>
+        <v>9877495</v>
       </c>
       <c r="C23" s="6">
-        <v>6611923</v>
+        <v>9876213</v>
       </c>
       <c r="D23" s="6">
-        <v>6658008</v>
+        <v>9887238</v>
       </c>
       <c r="E23" s="6">
-        <v>6706786</v>
+        <v>9898982</v>
       </c>
       <c r="F23" s="6">
-        <v>6749911</v>
+        <v>9915767</v>
       </c>
       <c r="G23" s="6">
-        <v>6784240</v>
+        <v>9917715</v>
       </c>
       <c r="H23" s="6">
-        <v>6811779</v>
+        <v>9928300</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -2014,25 +1262,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="6">
-        <v>9877495</v>
+        <v>5311147</v>
       </c>
       <c r="C24" s="6">
-        <v>9876213</v>
+        <v>5348562</v>
       </c>
       <c r="D24" s="6">
-        <v>9887238</v>
+        <v>5380285</v>
       </c>
       <c r="E24" s="6">
-        <v>9898982</v>
+        <v>5418521</v>
       </c>
       <c r="F24" s="6">
-        <v>9915767</v>
+        <v>5453109</v>
       </c>
       <c r="G24" s="6">
-        <v>9917715</v>
+        <v>5482435</v>
       </c>
       <c r="H24" s="6">
-        <v>9928300</v>
+        <v>5519952</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -2040,25 +1288,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="6">
-        <v>5311147</v>
+        <v>2970322</v>
       </c>
       <c r="C25" s="6">
-        <v>5348562</v>
+        <v>2978162</v>
       </c>
       <c r="D25" s="6">
-        <v>5380285</v>
+        <v>2984945</v>
       </c>
       <c r="E25" s="6">
-        <v>5418521</v>
+        <v>2990482</v>
       </c>
       <c r="F25" s="6">
-        <v>5453109</v>
+        <v>2992400</v>
       </c>
       <c r="G25" s="6">
-        <v>5482435</v>
+        <v>2989390</v>
       </c>
       <c r="H25" s="6">
-        <v>5519952</v>
+        <v>2988726</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -2066,25 +1314,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="6">
-        <v>2970322</v>
+        <v>5996118</v>
       </c>
       <c r="C26" s="6">
-        <v>2978162</v>
+        <v>6010717</v>
       </c>
       <c r="D26" s="6">
-        <v>2984945</v>
+        <v>6025415</v>
       </c>
       <c r="E26" s="6">
-        <v>2990482</v>
+        <v>6042711</v>
       </c>
       <c r="F26" s="6">
-        <v>2992400</v>
+        <v>6060930</v>
       </c>
       <c r="G26" s="6">
-        <v>2989390</v>
+        <v>6076204</v>
       </c>
       <c r="H26" s="6">
-        <v>2988726</v>
+        <v>6093000</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -2092,25 +1340,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="6">
-        <v>5996118</v>
+        <v>990641</v>
       </c>
       <c r="C27" s="6">
-        <v>6010717</v>
+        <v>997821</v>
       </c>
       <c r="D27" s="6">
-        <v>6025415</v>
+        <v>1005196</v>
       </c>
       <c r="E27" s="6">
-        <v>6042711</v>
+        <v>1014314</v>
       </c>
       <c r="F27" s="6">
-        <v>6060930</v>
+        <v>1022867</v>
       </c>
       <c r="G27" s="6">
-        <v>6076204</v>
+        <v>1032073</v>
       </c>
       <c r="H27" s="6">
-        <v>6093000</v>
+        <v>1042520</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -2118,25 +1366,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="6">
-        <v>990641</v>
+        <v>1830051</v>
       </c>
       <c r="C28" s="6">
-        <v>997821</v>
+        <v>1842283</v>
       </c>
       <c r="D28" s="6">
-        <v>1005196</v>
+        <v>1855725</v>
       </c>
       <c r="E28" s="6">
-        <v>1014314</v>
+        <v>1868559</v>
       </c>
       <c r="F28" s="6">
-        <v>1022867</v>
+        <v>1881145</v>
       </c>
       <c r="G28" s="6">
-        <v>1032073</v>
+        <v>1893765</v>
       </c>
       <c r="H28" s="6">
-        <v>1042520</v>
+        <v>1907116</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -2144,25 +1392,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="6">
-        <v>1830051</v>
+        <v>2703284</v>
       </c>
       <c r="C29" s="6">
-        <v>1842283</v>
+        <v>2718379</v>
       </c>
       <c r="D29" s="6">
-        <v>1855725</v>
+        <v>2752565</v>
       </c>
       <c r="E29" s="6">
-        <v>1868559</v>
+        <v>2786464</v>
       </c>
       <c r="F29" s="6">
-        <v>1881145</v>
+        <v>2833013</v>
       </c>
       <c r="G29" s="6">
-        <v>1893765</v>
+        <v>2883758</v>
       </c>
       <c r="H29" s="6">
-        <v>1907116</v>
+        <v>2940058</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -2170,25 +1418,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="6">
-        <v>2703284</v>
+        <v>1316872</v>
       </c>
       <c r="C30" s="6">
-        <v>2718379</v>
+        <v>1318473</v>
       </c>
       <c r="D30" s="6">
-        <v>2752565</v>
+        <v>1321182</v>
       </c>
       <c r="E30" s="6">
-        <v>2786464</v>
+        <v>1322687</v>
       </c>
       <c r="F30" s="6">
-        <v>2833013</v>
+        <v>1328743</v>
       </c>
       <c r="G30" s="6">
-        <v>2883758</v>
+        <v>1330111</v>
       </c>
       <c r="H30" s="6">
-        <v>2940058</v>
+        <v>1334795</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -2196,25 +1444,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="6">
-        <v>1316872</v>
+        <v>8803729</v>
       </c>
       <c r="C31" s="6">
-        <v>1318473</v>
+        <v>8841243</v>
       </c>
       <c r="D31" s="6">
-        <v>1321182</v>
+        <v>8873211</v>
       </c>
       <c r="E31" s="6">
-        <v>1322687</v>
+        <v>8899162</v>
       </c>
       <c r="F31" s="6">
-        <v>1328743</v>
+        <v>8925001</v>
       </c>
       <c r="G31" s="6">
-        <v>1330111</v>
+        <v>8935421</v>
       </c>
       <c r="H31" s="6">
-        <v>1334795</v>
+        <v>8944469</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -2222,25 +1470,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="6">
-        <v>8803729</v>
+        <v>2064756</v>
       </c>
       <c r="C32" s="6">
-        <v>8841243</v>
+        <v>2077756</v>
       </c>
       <c r="D32" s="6">
-        <v>8873211</v>
+        <v>2083784</v>
       </c>
       <c r="E32" s="6">
-        <v>8899162</v>
+        <v>2085193</v>
       </c>
       <c r="F32" s="6">
-        <v>8925001</v>
+        <v>2083024</v>
       </c>
       <c r="G32" s="6">
-        <v>8935421</v>
+        <v>2080328</v>
       </c>
       <c r="H32" s="6">
-        <v>8944469</v>
+        <v>2081015</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -2248,25 +1496,25 @@
         <v>32</v>
       </c>
       <c r="B33" s="6">
-        <v>2064756</v>
+        <v>19402640</v>
       </c>
       <c r="C33" s="6">
-        <v>2077756</v>
+        <v>19519529</v>
       </c>
       <c r="D33" s="6">
-        <v>2083784</v>
+        <v>19602769</v>
       </c>
       <c r="E33" s="6">
-        <v>2085193</v>
+        <v>19673546</v>
       </c>
       <c r="F33" s="6">
-        <v>2083024</v>
+        <v>19718515</v>
       </c>
       <c r="G33" s="6">
-        <v>2080328</v>
+        <v>19747183</v>
       </c>
       <c r="H33" s="6">
-        <v>2081015</v>
+        <v>19745289</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
@@ -2274,25 +1522,25 @@
         <v>33</v>
       </c>
       <c r="B34" s="6">
-        <v>19402640</v>
+        <v>9558915</v>
       </c>
       <c r="C34" s="6">
-        <v>19519529</v>
+        <v>9650963</v>
       </c>
       <c r="D34" s="6">
-        <v>19602769</v>
+        <v>9746175</v>
       </c>
       <c r="E34" s="6">
-        <v>19673546</v>
+        <v>9841590</v>
       </c>
       <c r="F34" s="6">
-        <v>19718515</v>
+        <v>9934399</v>
       </c>
       <c r="G34" s="6">
-        <v>19747183</v>
+        <v>10035186</v>
       </c>
       <c r="H34" s="6">
-        <v>19745289</v>
+        <v>10146788</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -2300,25 +1548,25 @@
         <v>34</v>
       </c>
       <c r="B35" s="6">
-        <v>9558915</v>
+        <v>674526</v>
       </c>
       <c r="C35" s="6">
-        <v>9650963</v>
+        <v>685476</v>
       </c>
       <c r="D35" s="6">
-        <v>9746175</v>
+        <v>702087</v>
       </c>
       <c r="E35" s="6">
-        <v>9841590</v>
+        <v>724019</v>
       </c>
       <c r="F35" s="6">
-        <v>9934399</v>
+        <v>739904</v>
       </c>
       <c r="G35" s="6">
-        <v>10035186</v>
+        <v>756835</v>
       </c>
       <c r="H35" s="6">
-        <v>10146788</v>
+        <v>757952</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -2326,25 +1574,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="6">
-        <v>674526</v>
+        <v>11540983</v>
       </c>
       <c r="C36" s="6">
-        <v>685476</v>
+        <v>11544824</v>
       </c>
       <c r="D36" s="6">
-        <v>702087</v>
+        <v>11550839</v>
       </c>
       <c r="E36" s="6">
-        <v>724019</v>
+        <v>11570022</v>
       </c>
       <c r="F36" s="6">
-        <v>739904</v>
+        <v>11594408</v>
       </c>
       <c r="G36" s="6">
-        <v>756835</v>
+        <v>11605090</v>
       </c>
       <c r="H36" s="6">
-        <v>757952</v>
+        <v>11614373</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -2352,25 +1600,25 @@
         <v>36</v>
       </c>
       <c r="B37" s="6">
-        <v>11540983</v>
+        <v>3759603</v>
       </c>
       <c r="C37" s="6">
-        <v>11544824</v>
+        <v>3786274</v>
       </c>
       <c r="D37" s="6">
-        <v>11550839</v>
+        <v>3817054</v>
       </c>
       <c r="E37" s="6">
-        <v>11570022</v>
+        <v>3852415</v>
       </c>
       <c r="F37" s="6">
-        <v>11594408</v>
+        <v>3877499</v>
       </c>
       <c r="G37" s="6">
-        <v>11605090</v>
+        <v>3907414</v>
       </c>
       <c r="H37" s="6">
-        <v>11614373</v>
+        <v>3923561</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -2378,25 +1626,25 @@
         <v>37</v>
       </c>
       <c r="B38" s="6">
-        <v>3759603</v>
+        <v>3838048</v>
       </c>
       <c r="C38" s="6">
-        <v>3786274</v>
+        <v>3868031</v>
       </c>
       <c r="D38" s="6">
-        <v>3817054</v>
+        <v>3899116</v>
       </c>
       <c r="E38" s="6">
-        <v>3852415</v>
+        <v>3925751</v>
       </c>
       <c r="F38" s="6">
-        <v>3877499</v>
+        <v>3968371</v>
       </c>
       <c r="G38" s="6">
-        <v>3907414</v>
+        <v>4024634</v>
       </c>
       <c r="H38" s="6">
-        <v>3923561</v>
+        <v>4093465</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -2404,25 +1652,25 @@
         <v>38</v>
       </c>
       <c r="B39" s="6">
-        <v>3838048</v>
+        <v>12712343</v>
       </c>
       <c r="C39" s="6">
-        <v>3868031</v>
+        <v>12744293</v>
       </c>
       <c r="D39" s="6">
-        <v>3899116</v>
+        <v>12771854</v>
       </c>
       <c r="E39" s="6">
-        <v>3925751</v>
+        <v>12781338</v>
       </c>
       <c r="F39" s="6">
-        <v>3968371</v>
+        <v>12790565</v>
       </c>
       <c r="G39" s="6">
-        <v>4024634</v>
+        <v>12791904</v>
       </c>
       <c r="H39" s="6">
-        <v>4093465</v>
+        <v>12784227</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -2430,25 +1678,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="6">
-        <v>12712343</v>
+        <v>1053337</v>
       </c>
       <c r="C40" s="6">
-        <v>12744293</v>
+        <v>1052451</v>
       </c>
       <c r="D40" s="6">
-        <v>12771854</v>
+        <v>1052901</v>
       </c>
       <c r="E40" s="6">
-        <v>12781338</v>
+        <v>1053033</v>
       </c>
       <c r="F40" s="6">
-        <v>12790565</v>
+        <v>1054480</v>
       </c>
       <c r="G40" s="6">
-        <v>12791904</v>
+        <v>1055607</v>
       </c>
       <c r="H40" s="6">
-        <v>12784227</v>
+        <v>1056426</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -2456,25 +1704,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="6">
-        <v>1053337</v>
+        <v>4635943</v>
       </c>
       <c r="C41" s="6">
-        <v>1052451</v>
+        <v>4672637</v>
       </c>
       <c r="D41" s="6">
-        <v>1052901</v>
+        <v>4720760</v>
       </c>
       <c r="E41" s="6">
-        <v>1053033</v>
+        <v>4767894</v>
       </c>
       <c r="F41" s="6">
-        <v>1054480</v>
+        <v>4828430</v>
       </c>
       <c r="G41" s="6">
-        <v>1055607</v>
+        <v>4894834</v>
       </c>
       <c r="H41" s="6">
-        <v>1056426</v>
+        <v>4961119</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
@@ -2482,25 +1730,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="6">
-        <v>4635943</v>
+        <v>816325</v>
       </c>
       <c r="C42" s="6">
-        <v>4672637</v>
+        <v>824398</v>
       </c>
       <c r="D42" s="6">
-        <v>4720760</v>
+        <v>834441</v>
       </c>
       <c r="E42" s="6">
-        <v>4767894</v>
+        <v>844922</v>
       </c>
       <c r="F42" s="6">
-        <v>4828430</v>
+        <v>852561</v>
       </c>
       <c r="G42" s="6">
-        <v>4894834</v>
+        <v>857919</v>
       </c>
       <c r="H42" s="6">
-        <v>4961119</v>
+        <v>865454</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
@@ -2508,25 +1756,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="6">
-        <v>816325</v>
+        <v>6356671</v>
       </c>
       <c r="C43" s="6">
-        <v>824398</v>
+        <v>6397634</v>
       </c>
       <c r="D43" s="6">
-        <v>834441</v>
+        <v>6454306</v>
       </c>
       <c r="E43" s="6">
-        <v>844922</v>
+        <v>6494821</v>
       </c>
       <c r="F43" s="6">
-        <v>852561</v>
+        <v>6544663</v>
       </c>
       <c r="G43" s="6">
-        <v>857919</v>
+        <v>6595056</v>
       </c>
       <c r="H43" s="6">
-        <v>865454</v>
+        <v>6651194</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
@@ -2534,25 +1782,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="6">
-        <v>6356671</v>
+        <v>25244310</v>
       </c>
       <c r="C44" s="6">
-        <v>6397634</v>
+        <v>25646389</v>
       </c>
       <c r="D44" s="6">
-        <v>6454306</v>
+        <v>26071655</v>
       </c>
       <c r="E44" s="6">
-        <v>6494821</v>
+        <v>26473525</v>
       </c>
       <c r="F44" s="6">
-        <v>6544663</v>
+        <v>26944751</v>
       </c>
       <c r="G44" s="6">
-        <v>6595056</v>
+        <v>27429639</v>
       </c>
       <c r="H44" s="6">
-        <v>6651194</v>
+        <v>27862596</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
@@ -2560,25 +1808,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="6">
-        <v>25244310</v>
+        <v>2775326</v>
       </c>
       <c r="C45" s="6">
-        <v>25646389</v>
+        <v>2816124</v>
       </c>
       <c r="D45" s="6">
-        <v>26071655</v>
+        <v>2855782</v>
       </c>
       <c r="E45" s="6">
-        <v>26473525</v>
+        <v>2902663</v>
       </c>
       <c r="F45" s="6">
-        <v>26944751</v>
+        <v>2941836</v>
       </c>
       <c r="G45" s="6">
-        <v>27429639</v>
+        <v>2990632</v>
       </c>
       <c r="H45" s="6">
-        <v>27862596</v>
+        <v>3051217</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
@@ -2586,25 +1834,25 @@
         <v>45</v>
       </c>
       <c r="B46" s="6">
-        <v>2775326</v>
+        <v>625982</v>
       </c>
       <c r="C46" s="6">
-        <v>2816124</v>
+        <v>626730</v>
       </c>
       <c r="D46" s="6">
-        <v>2855782</v>
+        <v>626444</v>
       </c>
       <c r="E46" s="6">
-        <v>2902663</v>
+        <v>627140</v>
       </c>
       <c r="F46" s="6">
-        <v>2941836</v>
+        <v>626984</v>
       </c>
       <c r="G46" s="6">
-        <v>2990632</v>
+        <v>626088</v>
       </c>
       <c r="H46" s="6">
-        <v>3051217</v>
+        <v>624594</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
@@ -2612,25 +1860,25 @@
         <v>46</v>
       </c>
       <c r="B47" s="6">
-        <v>625982</v>
+        <v>8025773</v>
       </c>
       <c r="C47" s="6">
-        <v>626730</v>
+        <v>8110035</v>
       </c>
       <c r="D47" s="6">
-        <v>626444</v>
+        <v>8192048</v>
       </c>
       <c r="E47" s="6">
-        <v>627140</v>
+        <v>8262692</v>
       </c>
       <c r="F47" s="6">
-        <v>626984</v>
+        <v>8317372</v>
       </c>
       <c r="G47" s="6">
-        <v>626088</v>
+        <v>8367587</v>
       </c>
       <c r="H47" s="6">
-        <v>624594</v>
+        <v>8411808</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -2638,25 +1886,25 @@
         <v>47</v>
       </c>
       <c r="B48" s="6">
-        <v>8025773</v>
+        <v>6743226</v>
       </c>
       <c r="C48" s="6">
-        <v>8110035</v>
+        <v>6822520</v>
       </c>
       <c r="D48" s="6">
-        <v>8192048</v>
+        <v>6895226</v>
       </c>
       <c r="E48" s="6">
-        <v>8262692</v>
+        <v>6968006</v>
       </c>
       <c r="F48" s="6">
-        <v>8317372</v>
+        <v>7054196</v>
       </c>
       <c r="G48" s="6">
-        <v>8367587</v>
+        <v>7160290</v>
       </c>
       <c r="H48" s="6">
-        <v>8411808</v>
+        <v>7288000</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
@@ -2664,25 +1912,25 @@
         <v>48</v>
       </c>
       <c r="B49" s="6">
-        <v>6743226</v>
+        <v>1854230</v>
       </c>
       <c r="C49" s="6">
-        <v>6822520</v>
+        <v>1854972</v>
       </c>
       <c r="D49" s="6">
-        <v>6895226</v>
+        <v>1856560</v>
       </c>
       <c r="E49" s="6">
-        <v>6968006</v>
+        <v>1853231</v>
       </c>
       <c r="F49" s="6">
-        <v>7054196</v>
+        <v>1848514</v>
       </c>
       <c r="G49" s="6">
-        <v>7160290</v>
+        <v>1841053</v>
       </c>
       <c r="H49" s="6">
-        <v>7288000</v>
+        <v>1831102</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
@@ -2690,25 +1938,25 @@
         <v>49</v>
       </c>
       <c r="B50" s="6">
-        <v>1854230</v>
+        <v>5690263</v>
       </c>
       <c r="C50" s="6">
-        <v>1854972</v>
+        <v>5709640</v>
       </c>
       <c r="D50" s="6">
-        <v>1856560</v>
+        <v>5726177</v>
       </c>
       <c r="E50" s="6">
-        <v>1853231</v>
+        <v>5742854</v>
       </c>
       <c r="F50" s="6">
-        <v>1848514</v>
+        <v>5758377</v>
       </c>
       <c r="G50" s="6">
-        <v>1841053</v>
+        <v>5767891</v>
       </c>
       <c r="H50" s="6">
-        <v>1831102</v>
+        <v>5778708</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
@@ -2716,157 +1964,28 @@
         <v>50</v>
       </c>
       <c r="B51" s="6">
-        <v>5690263</v>
+        <v>564513</v>
       </c>
       <c r="C51" s="6">
-        <v>5709640</v>
+        <v>567725</v>
       </c>
       <c r="D51" s="6">
-        <v>5726177</v>
+        <v>576765</v>
       </c>
       <c r="E51" s="6">
-        <v>5742854</v>
+        <v>582684</v>
       </c>
       <c r="F51" s="6">
-        <v>5758377</v>
+        <v>583642</v>
       </c>
       <c r="G51" s="6">
-        <v>5767891</v>
+        <v>586555</v>
       </c>
       <c r="H51" s="6">
-        <v>5778708</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="6">
-        <v>564513</v>
-      </c>
-      <c r="C52" s="6">
-        <v>567725</v>
-      </c>
-      <c r="D52" s="6">
-        <v>576765</v>
-      </c>
-      <c r="E52" s="6">
-        <v>582684</v>
-      </c>
-      <c r="F52" s="6">
-        <v>583642</v>
-      </c>
-      <c r="G52" s="6">
-        <v>586555</v>
-      </c>
-      <c r="H52" s="6">
         <v>585501</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="7"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="6">
-        <v>3721525</v>
-      </c>
-      <c r="C54" s="6">
-        <v>3678732</v>
-      </c>
-      <c r="D54" s="6">
-        <v>3634488</v>
-      </c>
-      <c r="E54" s="6">
-        <v>3593077</v>
-      </c>
-      <c r="F54" s="6">
-        <v>3534874</v>
-      </c>
-      <c r="G54" s="6">
-        <v>3473181</v>
-      </c>
-      <c r="H54" s="6">
-        <v>3411307</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="20"/>
-    </row>
-    <row r="56" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="11"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="14"/>
-    </row>
-    <row r="58" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="14"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="17"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="A58:H58"/>
-    <mergeCell ref="A59:H59"/>
-    <mergeCell ref="A55:H55"/>
-  </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>

--- a/data/progproj_population.xlsx
+++ b/data/progproj_population.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanne\Documents\GitHub\Homework\Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172065BF-2E71-4495-96D7-20E15A33EA86}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCFAA54-C90A-4091-8803-0DB9798CCE9A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,16 +16,16 @@
     <sheet name="NST01" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'NST01'!$A$1:$H$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'NST01'!$A$1:$H$52</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'NST01'!$A:$A,'NST01'!$1:$2</definedName>
-    <definedName name="NST01">'NST01'!$A$1:$H$51</definedName>
+    <definedName name="NST01">'NST01'!$A$1:$H$52</definedName>
   </definedNames>
   <calcPr calcId="65536"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>StateName</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Wyoming</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
   </si>
 </sst>
 </file>
@@ -645,11 +648,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -895,1093 +898,1119 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B10" s="6">
-        <v>18849098</v>
+        <v>605183</v>
       </c>
       <c r="C10" s="6">
-        <v>19096952</v>
+        <v>620477</v>
       </c>
       <c r="D10" s="6">
-        <v>19344156</v>
+        <v>635327</v>
       </c>
       <c r="E10" s="6">
-        <v>19582022</v>
+        <v>649165</v>
       </c>
       <c r="F10" s="6">
-        <v>19888741</v>
+        <v>659005</v>
       </c>
       <c r="G10" s="6">
-        <v>20244914</v>
+        <v>670377</v>
       </c>
       <c r="H10" s="6">
-        <v>20612439</v>
+        <v>681170</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6">
-        <v>9713521</v>
+        <v>18849098</v>
       </c>
       <c r="C11" s="6">
-        <v>9811610</v>
+        <v>19096952</v>
       </c>
       <c r="D11" s="6">
-        <v>9914668</v>
+        <v>19344156</v>
       </c>
       <c r="E11" s="6">
-        <v>9984938</v>
+        <v>19582022</v>
       </c>
       <c r="F11" s="6">
-        <v>10087231</v>
+        <v>19888741</v>
       </c>
       <c r="G11" s="6">
-        <v>10199398</v>
+        <v>20244914</v>
       </c>
       <c r="H11" s="6">
-        <v>10310371</v>
+        <v>20612439</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>1363945</v>
+        <v>9713521</v>
       </c>
       <c r="C12" s="6">
-        <v>1377864</v>
+        <v>9811610</v>
       </c>
       <c r="D12" s="6">
-        <v>1391820</v>
+        <v>9914668</v>
       </c>
       <c r="E12" s="6">
-        <v>1406481</v>
+        <v>9984938</v>
       </c>
       <c r="F12" s="6">
-        <v>1416349</v>
+        <v>10087231</v>
       </c>
       <c r="G12" s="6">
-        <v>1425157</v>
+        <v>10199398</v>
       </c>
       <c r="H12" s="6">
-        <v>1428557</v>
+        <v>10310371</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="6">
-        <v>1571010</v>
+        <v>1363945</v>
       </c>
       <c r="C13" s="6">
-        <v>1584143</v>
+        <v>1377864</v>
       </c>
       <c r="D13" s="6">
-        <v>1595911</v>
+        <v>1391820</v>
       </c>
       <c r="E13" s="6">
-        <v>1612011</v>
+        <v>1406481</v>
       </c>
       <c r="F13" s="6">
-        <v>1633532</v>
+        <v>1416349</v>
       </c>
       <c r="G13" s="6">
-        <v>1652828</v>
+        <v>1425157</v>
       </c>
       <c r="H13" s="6">
-        <v>1683140</v>
+        <v>1428557</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>12841578</v>
+        <v>1571010</v>
       </c>
       <c r="C14" s="6">
-        <v>12860012</v>
+        <v>1584143</v>
       </c>
       <c r="D14" s="6">
-        <v>12870798</v>
+        <v>1595911</v>
       </c>
       <c r="E14" s="6">
-        <v>12879505</v>
+        <v>1612011</v>
       </c>
       <c r="F14" s="6">
-        <v>12867544</v>
+        <v>1633532</v>
       </c>
       <c r="G14" s="6">
-        <v>12839047</v>
+        <v>1652828</v>
       </c>
       <c r="H14" s="6">
-        <v>12801539</v>
+        <v>1683140</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="6">
-        <v>6490528</v>
+        <v>12841578</v>
       </c>
       <c r="C15" s="6">
-        <v>6516480</v>
+        <v>12860012</v>
       </c>
       <c r="D15" s="6">
-        <v>6537743</v>
+        <v>12870798</v>
       </c>
       <c r="E15" s="6">
-        <v>6569102</v>
+        <v>12879505</v>
       </c>
       <c r="F15" s="6">
-        <v>6595233</v>
+        <v>12867544</v>
       </c>
       <c r="G15" s="6">
-        <v>6612768</v>
+        <v>12839047</v>
       </c>
       <c r="H15" s="6">
-        <v>6633053</v>
+        <v>12801539</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>3050738</v>
+        <v>6490528</v>
       </c>
       <c r="C16" s="6">
-        <v>3065223</v>
+        <v>6516480</v>
       </c>
       <c r="D16" s="6">
-        <v>3076310</v>
+        <v>6537743</v>
       </c>
       <c r="E16" s="6">
-        <v>3091930</v>
+        <v>6569102</v>
       </c>
       <c r="F16" s="6">
-        <v>3108030</v>
+        <v>6595233</v>
       </c>
       <c r="G16" s="6">
-        <v>3121997</v>
+        <v>6612768</v>
       </c>
       <c r="H16" s="6">
-        <v>3134693</v>
+        <v>6633053</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="6">
-        <v>2858850</v>
+        <v>3050738</v>
       </c>
       <c r="C17" s="6">
-        <v>2869503</v>
+        <v>3065223</v>
       </c>
       <c r="D17" s="6">
-        <v>2885262</v>
+        <v>3076310</v>
       </c>
       <c r="E17" s="6">
-        <v>2892821</v>
+        <v>3091930</v>
       </c>
       <c r="F17" s="6">
-        <v>2899360</v>
+        <v>3108030</v>
       </c>
       <c r="G17" s="6">
-        <v>2906721</v>
+        <v>3121997</v>
       </c>
       <c r="H17" s="6">
-        <v>2907289</v>
+        <v>3134693</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>4348662</v>
+        <v>2858850</v>
       </c>
       <c r="C18" s="6">
-        <v>4369354</v>
+        <v>2869503</v>
       </c>
       <c r="D18" s="6">
-        <v>4384799</v>
+        <v>2885262</v>
       </c>
       <c r="E18" s="6">
-        <v>4400477</v>
+        <v>2892821</v>
       </c>
       <c r="F18" s="6">
-        <v>4413057</v>
+        <v>2899360</v>
       </c>
       <c r="G18" s="6">
-        <v>4424611</v>
+        <v>2906721</v>
       </c>
       <c r="H18" s="6">
-        <v>4436974</v>
+        <v>2907289</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="6">
-        <v>4544996</v>
+        <v>4348662</v>
       </c>
       <c r="C19" s="6">
-        <v>4575404</v>
+        <v>4369354</v>
       </c>
       <c r="D19" s="6">
-        <v>4603429</v>
+        <v>4384799</v>
       </c>
       <c r="E19" s="6">
-        <v>4626402</v>
+        <v>4400477</v>
       </c>
       <c r="F19" s="6">
-        <v>4647880</v>
+        <v>4413057</v>
       </c>
       <c r="G19" s="6">
-        <v>4668960</v>
+        <v>4424611</v>
       </c>
       <c r="H19" s="6">
-        <v>4681666</v>
+        <v>4436974</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="6">
-        <v>1327730</v>
+        <v>4544996</v>
       </c>
       <c r="C20" s="6">
-        <v>1328231</v>
+        <v>4575404</v>
       </c>
       <c r="D20" s="6">
-        <v>1328895</v>
+        <v>4603429</v>
       </c>
       <c r="E20" s="6">
-        <v>1329076</v>
+        <v>4626402</v>
       </c>
       <c r="F20" s="6">
-        <v>1330719</v>
+        <v>4647880</v>
       </c>
       <c r="G20" s="6">
-        <v>1329453</v>
+        <v>4668960</v>
       </c>
       <c r="H20" s="6">
-        <v>1331479</v>
+        <v>4681666</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="6">
-        <v>5788584</v>
+        <v>1327730</v>
       </c>
       <c r="C21" s="6">
-        <v>5843603</v>
+        <v>1328231</v>
       </c>
       <c r="D21" s="6">
-        <v>5889651</v>
+        <v>1328895</v>
       </c>
       <c r="E21" s="6">
-        <v>5931129</v>
+        <v>1329076</v>
       </c>
       <c r="F21" s="6">
-        <v>5967295</v>
+        <v>1330719</v>
       </c>
       <c r="G21" s="6">
-        <v>5994983</v>
+        <v>1329453</v>
       </c>
       <c r="H21" s="6">
-        <v>6016447</v>
+        <v>1331479</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="6">
-        <v>6565524</v>
+        <v>5788584</v>
       </c>
       <c r="C22" s="6">
-        <v>6611923</v>
+        <v>5843603</v>
       </c>
       <c r="D22" s="6">
-        <v>6658008</v>
+        <v>5889651</v>
       </c>
       <c r="E22" s="6">
-        <v>6706786</v>
+        <v>5931129</v>
       </c>
       <c r="F22" s="6">
-        <v>6749911</v>
+        <v>5967295</v>
       </c>
       <c r="G22" s="6">
-        <v>6784240</v>
+        <v>5994983</v>
       </c>
       <c r="H22" s="6">
-        <v>6811779</v>
+        <v>6016447</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="6">
-        <v>9877495</v>
+        <v>6565524</v>
       </c>
       <c r="C23" s="6">
-        <v>9876213</v>
+        <v>6611923</v>
       </c>
       <c r="D23" s="6">
-        <v>9887238</v>
+        <v>6658008</v>
       </c>
       <c r="E23" s="6">
-        <v>9898982</v>
+        <v>6706786</v>
       </c>
       <c r="F23" s="6">
-        <v>9915767</v>
+        <v>6749911</v>
       </c>
       <c r="G23" s="6">
-        <v>9917715</v>
+        <v>6784240</v>
       </c>
       <c r="H23" s="6">
-        <v>9928300</v>
+        <v>6811779</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="6">
-        <v>5311147</v>
+        <v>9877495</v>
       </c>
       <c r="C24" s="6">
-        <v>5348562</v>
+        <v>9876213</v>
       </c>
       <c r="D24" s="6">
-        <v>5380285</v>
+        <v>9887238</v>
       </c>
       <c r="E24" s="6">
-        <v>5418521</v>
+        <v>9898982</v>
       </c>
       <c r="F24" s="6">
-        <v>5453109</v>
+        <v>9915767</v>
       </c>
       <c r="G24" s="6">
-        <v>5482435</v>
+        <v>9917715</v>
       </c>
       <c r="H24" s="6">
-        <v>5519952</v>
+        <v>9928300</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="6">
-        <v>2970322</v>
+        <v>5311147</v>
       </c>
       <c r="C25" s="6">
-        <v>2978162</v>
+        <v>5348562</v>
       </c>
       <c r="D25" s="6">
-        <v>2984945</v>
+        <v>5380285</v>
       </c>
       <c r="E25" s="6">
-        <v>2990482</v>
+        <v>5418521</v>
       </c>
       <c r="F25" s="6">
-        <v>2992400</v>
+        <v>5453109</v>
       </c>
       <c r="G25" s="6">
-        <v>2989390</v>
+        <v>5482435</v>
       </c>
       <c r="H25" s="6">
-        <v>2988726</v>
+        <v>5519952</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="6">
-        <v>5996118</v>
+        <v>2970322</v>
       </c>
       <c r="C26" s="6">
-        <v>6010717</v>
+        <v>2978162</v>
       </c>
       <c r="D26" s="6">
-        <v>6025415</v>
+        <v>2984945</v>
       </c>
       <c r="E26" s="6">
-        <v>6042711</v>
+        <v>2990482</v>
       </c>
       <c r="F26" s="6">
-        <v>6060930</v>
+        <v>2992400</v>
       </c>
       <c r="G26" s="6">
-        <v>6076204</v>
+        <v>2989390</v>
       </c>
       <c r="H26" s="6">
-        <v>6093000</v>
+        <v>2988726</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="6">
-        <v>990641</v>
+        <v>5996118</v>
       </c>
       <c r="C27" s="6">
-        <v>997821</v>
+        <v>6010717</v>
       </c>
       <c r="D27" s="6">
-        <v>1005196</v>
+        <v>6025415</v>
       </c>
       <c r="E27" s="6">
-        <v>1014314</v>
+        <v>6042711</v>
       </c>
       <c r="F27" s="6">
-        <v>1022867</v>
+        <v>6060930</v>
       </c>
       <c r="G27" s="6">
-        <v>1032073</v>
+        <v>6076204</v>
       </c>
       <c r="H27" s="6">
-        <v>1042520</v>
+        <v>6093000</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="6">
-        <v>1830051</v>
+        <v>990641</v>
       </c>
       <c r="C28" s="6">
-        <v>1842283</v>
+        <v>997821</v>
       </c>
       <c r="D28" s="6">
-        <v>1855725</v>
+        <v>1005196</v>
       </c>
       <c r="E28" s="6">
-        <v>1868559</v>
+        <v>1014314</v>
       </c>
       <c r="F28" s="6">
-        <v>1881145</v>
+        <v>1022867</v>
       </c>
       <c r="G28" s="6">
-        <v>1893765</v>
+        <v>1032073</v>
       </c>
       <c r="H28" s="6">
-        <v>1907116</v>
+        <v>1042520</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="6">
-        <v>2703284</v>
+        <v>1830051</v>
       </c>
       <c r="C29" s="6">
-        <v>2718379</v>
+        <v>1842283</v>
       </c>
       <c r="D29" s="6">
-        <v>2752565</v>
+        <v>1855725</v>
       </c>
       <c r="E29" s="6">
-        <v>2786464</v>
+        <v>1868559</v>
       </c>
       <c r="F29" s="6">
-        <v>2833013</v>
+        <v>1881145</v>
       </c>
       <c r="G29" s="6">
-        <v>2883758</v>
+        <v>1893765</v>
       </c>
       <c r="H29" s="6">
-        <v>2940058</v>
+        <v>1907116</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="6">
-        <v>1316872</v>
+        <v>2703284</v>
       </c>
       <c r="C30" s="6">
-        <v>1318473</v>
+        <v>2718379</v>
       </c>
       <c r="D30" s="6">
-        <v>1321182</v>
+        <v>2752565</v>
       </c>
       <c r="E30" s="6">
-        <v>1322687</v>
+        <v>2786464</v>
       </c>
       <c r="F30" s="6">
-        <v>1328743</v>
+        <v>2833013</v>
       </c>
       <c r="G30" s="6">
-        <v>1330111</v>
+        <v>2883758</v>
       </c>
       <c r="H30" s="6">
-        <v>1334795</v>
+        <v>2940058</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="6">
-        <v>8803729</v>
+        <v>1316872</v>
       </c>
       <c r="C31" s="6">
-        <v>8841243</v>
+        <v>1318473</v>
       </c>
       <c r="D31" s="6">
-        <v>8873211</v>
+        <v>1321182</v>
       </c>
       <c r="E31" s="6">
-        <v>8899162</v>
+        <v>1322687</v>
       </c>
       <c r="F31" s="6">
-        <v>8925001</v>
+        <v>1328743</v>
       </c>
       <c r="G31" s="6">
-        <v>8935421</v>
+        <v>1330111</v>
       </c>
       <c r="H31" s="6">
-        <v>8944469</v>
+        <v>1334795</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="6">
-        <v>2064756</v>
+        <v>8803729</v>
       </c>
       <c r="C32" s="6">
-        <v>2077756</v>
+        <v>8841243</v>
       </c>
       <c r="D32" s="6">
-        <v>2083784</v>
+        <v>8873211</v>
       </c>
       <c r="E32" s="6">
-        <v>2085193</v>
+        <v>8899162</v>
       </c>
       <c r="F32" s="6">
-        <v>2083024</v>
+        <v>8925001</v>
       </c>
       <c r="G32" s="6">
-        <v>2080328</v>
+        <v>8935421</v>
       </c>
       <c r="H32" s="6">
-        <v>2081015</v>
+        <v>8944469</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="6">
-        <v>19402640</v>
+        <v>2064756</v>
       </c>
       <c r="C33" s="6">
-        <v>19519529</v>
+        <v>2077756</v>
       </c>
       <c r="D33" s="6">
-        <v>19602769</v>
+        <v>2083784</v>
       </c>
       <c r="E33" s="6">
-        <v>19673546</v>
+        <v>2085193</v>
       </c>
       <c r="F33" s="6">
-        <v>19718515</v>
+        <v>2083024</v>
       </c>
       <c r="G33" s="6">
-        <v>19747183</v>
+        <v>2080328</v>
       </c>
       <c r="H33" s="6">
-        <v>19745289</v>
+        <v>2081015</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="6">
-        <v>9558915</v>
+        <v>19402640</v>
       </c>
       <c r="C34" s="6">
-        <v>9650963</v>
+        <v>19519529</v>
       </c>
       <c r="D34" s="6">
-        <v>9746175</v>
+        <v>19602769</v>
       </c>
       <c r="E34" s="6">
-        <v>9841590</v>
+        <v>19673546</v>
       </c>
       <c r="F34" s="6">
-        <v>9934399</v>
+        <v>19718515</v>
       </c>
       <c r="G34" s="6">
-        <v>10035186</v>
+        <v>19747183</v>
       </c>
       <c r="H34" s="6">
-        <v>10146788</v>
+        <v>19745289</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="6">
-        <v>674526</v>
+        <v>9558915</v>
       </c>
       <c r="C35" s="6">
-        <v>685476</v>
+        <v>9650963</v>
       </c>
       <c r="D35" s="6">
-        <v>702087</v>
+        <v>9746175</v>
       </c>
       <c r="E35" s="6">
-        <v>724019</v>
+        <v>9841590</v>
       </c>
       <c r="F35" s="6">
-        <v>739904</v>
+        <v>9934399</v>
       </c>
       <c r="G35" s="6">
-        <v>756835</v>
+        <v>10035186</v>
       </c>
       <c r="H35" s="6">
-        <v>757952</v>
+        <v>10146788</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="6">
-        <v>11540983</v>
+        <v>674526</v>
       </c>
       <c r="C36" s="6">
-        <v>11544824</v>
+        <v>685476</v>
       </c>
       <c r="D36" s="6">
-        <v>11550839</v>
+        <v>702087</v>
       </c>
       <c r="E36" s="6">
-        <v>11570022</v>
+        <v>724019</v>
       </c>
       <c r="F36" s="6">
-        <v>11594408</v>
+        <v>739904</v>
       </c>
       <c r="G36" s="6">
-        <v>11605090</v>
+        <v>756835</v>
       </c>
       <c r="H36" s="6">
-        <v>11614373</v>
+        <v>757952</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="6">
-        <v>3759603</v>
+        <v>11540983</v>
       </c>
       <c r="C37" s="6">
-        <v>3786274</v>
+        <v>11544824</v>
       </c>
       <c r="D37" s="6">
-        <v>3817054</v>
+        <v>11550839</v>
       </c>
       <c r="E37" s="6">
-        <v>3852415</v>
+        <v>11570022</v>
       </c>
       <c r="F37" s="6">
-        <v>3877499</v>
+        <v>11594408</v>
       </c>
       <c r="G37" s="6">
-        <v>3907414</v>
+        <v>11605090</v>
       </c>
       <c r="H37" s="6">
-        <v>3923561</v>
+        <v>11614373</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="6">
-        <v>3838048</v>
+        <v>3759603</v>
       </c>
       <c r="C38" s="6">
-        <v>3868031</v>
+        <v>3786274</v>
       </c>
       <c r="D38" s="6">
-        <v>3899116</v>
+        <v>3817054</v>
       </c>
       <c r="E38" s="6">
-        <v>3925751</v>
+        <v>3852415</v>
       </c>
       <c r="F38" s="6">
-        <v>3968371</v>
+        <v>3877499</v>
       </c>
       <c r="G38" s="6">
-        <v>4024634</v>
+        <v>3907414</v>
       </c>
       <c r="H38" s="6">
-        <v>4093465</v>
+        <v>3923561</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="6">
-        <v>12712343</v>
+        <v>3838048</v>
       </c>
       <c r="C39" s="6">
-        <v>12744293</v>
+        <v>3868031</v>
       </c>
       <c r="D39" s="6">
-        <v>12771854</v>
+        <v>3899116</v>
       </c>
       <c r="E39" s="6">
-        <v>12781338</v>
+        <v>3925751</v>
       </c>
       <c r="F39" s="6">
-        <v>12790565</v>
+        <v>3968371</v>
       </c>
       <c r="G39" s="6">
-        <v>12791904</v>
+        <v>4024634</v>
       </c>
       <c r="H39" s="6">
-        <v>12784227</v>
+        <v>4093465</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="6">
-        <v>1053337</v>
+        <v>12712343</v>
       </c>
       <c r="C40" s="6">
-        <v>1052451</v>
+        <v>12744293</v>
       </c>
       <c r="D40" s="6">
-        <v>1052901</v>
+        <v>12771854</v>
       </c>
       <c r="E40" s="6">
-        <v>1053033</v>
+        <v>12781338</v>
       </c>
       <c r="F40" s="6">
-        <v>1054480</v>
+        <v>12790565</v>
       </c>
       <c r="G40" s="6">
-        <v>1055607</v>
+        <v>12791904</v>
       </c>
       <c r="H40" s="6">
-        <v>1056426</v>
+        <v>12784227</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="6">
-        <v>4635943</v>
+        <v>1053337</v>
       </c>
       <c r="C41" s="6">
-        <v>4672637</v>
+        <v>1052451</v>
       </c>
       <c r="D41" s="6">
-        <v>4720760</v>
+        <v>1052901</v>
       </c>
       <c r="E41" s="6">
-        <v>4767894</v>
+        <v>1053033</v>
       </c>
       <c r="F41" s="6">
-        <v>4828430</v>
+        <v>1054480</v>
       </c>
       <c r="G41" s="6">
-        <v>4894834</v>
+        <v>1055607</v>
       </c>
       <c r="H41" s="6">
-        <v>4961119</v>
+        <v>1056426</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="6">
-        <v>816325</v>
+        <v>4635943</v>
       </c>
       <c r="C42" s="6">
-        <v>824398</v>
+        <v>4672637</v>
       </c>
       <c r="D42" s="6">
-        <v>834441</v>
+        <v>4720760</v>
       </c>
       <c r="E42" s="6">
-        <v>844922</v>
+        <v>4767894</v>
       </c>
       <c r="F42" s="6">
-        <v>852561</v>
+        <v>4828430</v>
       </c>
       <c r="G42" s="6">
-        <v>857919</v>
+        <v>4894834</v>
       </c>
       <c r="H42" s="6">
-        <v>865454</v>
+        <v>4961119</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="6">
-        <v>6356671</v>
+        <v>816325</v>
       </c>
       <c r="C43" s="6">
-        <v>6397634</v>
+        <v>824398</v>
       </c>
       <c r="D43" s="6">
-        <v>6454306</v>
+        <v>834441</v>
       </c>
       <c r="E43" s="6">
-        <v>6494821</v>
+        <v>844922</v>
       </c>
       <c r="F43" s="6">
-        <v>6544663</v>
+        <v>852561</v>
       </c>
       <c r="G43" s="6">
-        <v>6595056</v>
+        <v>857919</v>
       </c>
       <c r="H43" s="6">
-        <v>6651194</v>
+        <v>865454</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="6">
-        <v>25244310</v>
+        <v>6356671</v>
       </c>
       <c r="C44" s="6">
-        <v>25646389</v>
+        <v>6397634</v>
       </c>
       <c r="D44" s="6">
-        <v>26071655</v>
+        <v>6454306</v>
       </c>
       <c r="E44" s="6">
-        <v>26473525</v>
+        <v>6494821</v>
       </c>
       <c r="F44" s="6">
-        <v>26944751</v>
+        <v>6544663</v>
       </c>
       <c r="G44" s="6">
-        <v>27429639</v>
+        <v>6595056</v>
       </c>
       <c r="H44" s="6">
-        <v>27862596</v>
+        <v>6651194</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="6">
-        <v>2775326</v>
+        <v>25244310</v>
       </c>
       <c r="C45" s="6">
-        <v>2816124</v>
+        <v>25646389</v>
       </c>
       <c r="D45" s="6">
-        <v>2855782</v>
+        <v>26071655</v>
       </c>
       <c r="E45" s="6">
-        <v>2902663</v>
+        <v>26473525</v>
       </c>
       <c r="F45" s="6">
-        <v>2941836</v>
+        <v>26944751</v>
       </c>
       <c r="G45" s="6">
-        <v>2990632</v>
+        <v>27429639</v>
       </c>
       <c r="H45" s="6">
-        <v>3051217</v>
+        <v>27862596</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="6">
-        <v>625982</v>
+        <v>2775326</v>
       </c>
       <c r="C46" s="6">
-        <v>626730</v>
+        <v>2816124</v>
       </c>
       <c r="D46" s="6">
-        <v>626444</v>
+        <v>2855782</v>
       </c>
       <c r="E46" s="6">
-        <v>627140</v>
+        <v>2902663</v>
       </c>
       <c r="F46" s="6">
-        <v>626984</v>
+        <v>2941836</v>
       </c>
       <c r="G46" s="6">
-        <v>626088</v>
+        <v>2990632</v>
       </c>
       <c r="H46" s="6">
-        <v>624594</v>
+        <v>3051217</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="6">
-        <v>8025773</v>
+        <v>625982</v>
       </c>
       <c r="C47" s="6">
-        <v>8110035</v>
+        <v>626730</v>
       </c>
       <c r="D47" s="6">
-        <v>8192048</v>
+        <v>626444</v>
       </c>
       <c r="E47" s="6">
-        <v>8262692</v>
+        <v>627140</v>
       </c>
       <c r="F47" s="6">
-        <v>8317372</v>
+        <v>626984</v>
       </c>
       <c r="G47" s="6">
-        <v>8367587</v>
+        <v>626088</v>
       </c>
       <c r="H47" s="6">
-        <v>8411808</v>
+        <v>624594</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="6">
-        <v>6743226</v>
+        <v>8025773</v>
       </c>
       <c r="C48" s="6">
-        <v>6822520</v>
+        <v>8110035</v>
       </c>
       <c r="D48" s="6">
-        <v>6895226</v>
+        <v>8192048</v>
       </c>
       <c r="E48" s="6">
-        <v>6968006</v>
+        <v>8262692</v>
       </c>
       <c r="F48" s="6">
-        <v>7054196</v>
+        <v>8317372</v>
       </c>
       <c r="G48" s="6">
-        <v>7160290</v>
+        <v>8367587</v>
       </c>
       <c r="H48" s="6">
-        <v>7288000</v>
+        <v>8411808</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="6">
-        <v>1854230</v>
+        <v>6743226</v>
       </c>
       <c r="C49" s="6">
-        <v>1854972</v>
+        <v>6822520</v>
       </c>
       <c r="D49" s="6">
-        <v>1856560</v>
+        <v>6895226</v>
       </c>
       <c r="E49" s="6">
-        <v>1853231</v>
+        <v>6968006</v>
       </c>
       <c r="F49" s="6">
-        <v>1848514</v>
+        <v>7054196</v>
       </c>
       <c r="G49" s="6">
-        <v>1841053</v>
+        <v>7160290</v>
       </c>
       <c r="H49" s="6">
-        <v>1831102</v>
+        <v>7288000</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="6">
-        <v>5690263</v>
+        <v>1854230</v>
       </c>
       <c r="C50" s="6">
-        <v>5709640</v>
+        <v>1854972</v>
       </c>
       <c r="D50" s="6">
-        <v>5726177</v>
+        <v>1856560</v>
       </c>
       <c r="E50" s="6">
-        <v>5742854</v>
+        <v>1853231</v>
       </c>
       <c r="F50" s="6">
-        <v>5758377</v>
+        <v>1848514</v>
       </c>
       <c r="G50" s="6">
-        <v>5767891</v>
+        <v>1841053</v>
       </c>
       <c r="H50" s="6">
-        <v>5778708</v>
+        <v>1831102</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="6">
+        <v>5690263</v>
+      </c>
+      <c r="C51" s="6">
+        <v>5709640</v>
+      </c>
+      <c r="D51" s="6">
+        <v>5726177</v>
+      </c>
+      <c r="E51" s="6">
+        <v>5742854</v>
+      </c>
+      <c r="F51" s="6">
+        <v>5758377</v>
+      </c>
+      <c r="G51" s="6">
+        <v>5767891</v>
+      </c>
+      <c r="H51" s="6">
+        <v>5778708</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B52" s="6">
         <v>564513</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C52" s="6">
         <v>567725</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D52" s="6">
         <v>576765</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E52" s="6">
         <v>582684</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F52" s="6">
         <v>583642</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G52" s="6">
         <v>586555</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H52" s="6">
         <v>585501</v>
       </c>
     </row>
